--- a/DatabaseUpdate/ExcelFiles/HealthGroups.xlsx
+++ b/DatabaseUpdate/ExcelFiles/HealthGroups.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="HealthGroups Data" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Data" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -28,34 +28,34 @@
     <x:t>EndDateTime</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I группа</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>II группа</x:t>
-  </x:si>
-  <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>III группа</x:t>
+    <x:t>1 группа</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>IV группа</x:t>
+    <x:t>2 группа</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>V группа</x:t>
+    <x:t>3 группа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 группа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 группа</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -441,10 +441,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="1">
-        <x:v>2</x:v>
+        <x:v>42005</x:v>
       </x:c>
       <x:c r="D2" s="1">
-        <x:v>2958465</x:v>
+        <x:v>2958101</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -455,10 +455,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="1">
-        <x:v>2</x:v>
+        <x:v>42005</x:v>
       </x:c>
       <x:c r="D3" s="1">
-        <x:v>2958465</x:v>
+        <x:v>2958101</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -469,10 +469,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1">
-        <x:v>2</x:v>
+        <x:v>42005</x:v>
       </x:c>
       <x:c r="D4" s="1">
-        <x:v>2958465</x:v>
+        <x:v>2958101</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -483,10 +483,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="1">
-        <x:v>2</x:v>
+        <x:v>42005</x:v>
       </x:c>
       <x:c r="D5" s="1">
-        <x:v>2958465</x:v>
+        <x:v>2958101</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -497,10 +497,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C6" s="1">
-        <x:v>2</x:v>
+        <x:v>42005</x:v>
       </x:c>
       <x:c r="D6" s="1">
-        <x:v>2958465</x:v>
+        <x:v>2958101</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DatabaseUpdate/ExcelFiles/HealthGroups.xlsx
+++ b/DatabaseUpdate/ExcelFiles/HealthGroups.xlsx
@@ -31,31 +31,31 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>1 группа</x:t>
+    <x:t>I группа</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>2 группа</x:t>
+    <x:t>II группа</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3 группа</x:t>
+    <x:t>III группа</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>4 группа</x:t>
+    <x:t>IV группа</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>5 группа</x:t>
+    <x:t>V группа</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -441,10 +441,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="1">
-        <x:v>42005</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D2" s="1">
-        <x:v>2958101</x:v>
+        <x:v>2958100</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -455,10 +455,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="1">
-        <x:v>42005</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="1">
-        <x:v>2958101</x:v>
+        <x:v>2958100</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -469,10 +469,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1">
-        <x:v>42005</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D4" s="1">
-        <x:v>2958101</x:v>
+        <x:v>2958100</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -483,10 +483,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="1">
-        <x:v>42005</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D5" s="1">
-        <x:v>2958101</x:v>
+        <x:v>2958100</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -497,10 +497,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C6" s="1">
-        <x:v>42005</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="1">
-        <x:v>2958101</x:v>
+        <x:v>2958100</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
